--- a/handle_tk_gui/student_info.xlsx
+++ b/handle_tk_gui/student_info.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,92 +420,92 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1516240223</v>
+        <v>1627256123</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>王小明</t>
+          <t>林小宅</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>机器学习3班</t>
+          <t>语言学（2）班</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>45</v>
       </c>
-      <c r="F2" t="n">
-        <v>59</v>
-      </c>
       <c r="G2" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
-        <v>89</v>
+        <v>65.5</v>
       </c>
       <c r="I2" t="n">
-        <v>78.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="J2" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1627256123</v>
+        <v>1516240225</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>林小宅</t>
+          <t>王小明</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>语言学（2）班</t>
+          <t>机器学习3班</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>59.5</v>
+        <v>45</v>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G3" t="n">
+        <v>57</v>
+      </c>
+      <c r="H3" t="n">
         <v>89</v>
       </c>
-      <c r="H3" t="n">
-        <v>65.5</v>
-      </c>
       <c r="I3" t="n">
-        <v>98.5</v>
+        <v>78.5</v>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1516240224</v>
+        <v>1916345123</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>王小明</t>
+          <t>小林</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>机器学习3班</t>
+          <t>计算机科学(3)班</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -514,98 +514,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>59</v>
+        <v>59.5</v>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>67.5</v>
       </c>
       <c r="H4" t="n">
-        <v>89</v>
+        <v>94.5</v>
       </c>
       <c r="I4" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="J4" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1516240225</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>王小明</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>机器学习3班</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>45</v>
-      </c>
-      <c r="F5" t="n">
-        <v>59</v>
-      </c>
-      <c r="G5" t="n">
-        <v>57</v>
-      </c>
-      <c r="H5" t="n">
-        <v>89</v>
-      </c>
-      <c r="I5" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1910123112</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>小红</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>计算机一班</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>63</v>
-      </c>
-      <c r="F6" t="n">
-        <v>45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>78</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76</v>
-      </c>
-      <c r="I6" t="n">
-        <v>83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/handle_tk_gui/student_info.xlsx
+++ b/handle_tk_gui/student_info.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,12 +500,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>小林</t>
+          <t>小猪</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>计算机科学(3)班</t>
+          <t>计算机科学(1)班</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -514,22 +514,136 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>86</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>94</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1916345223</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>小刚</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>计算机科学(2)班</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>97</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1916345421</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>小猪</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>计算机科学(4)班</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>76</v>
+      </c>
+      <c r="F6" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>74</v>
+      </c>
+      <c r="J6" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1715250110</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>小红</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>软件工程一班</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94</v>
+      </c>
+      <c r="G7" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>95</v>
+      </c>
+      <c r="I7" t="n">
+        <v>86</v>
+      </c>
+      <c r="J7" t="n">
         <v>89</v>
-      </c>
-      <c r="F4" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>97</v>
-      </c>
-      <c r="J4" t="n">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/handle_tk_gui/student_info.xlsx
+++ b/handle_tk_gui/student_info.xlsx
@@ -534,16 +534,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1916345223</v>
+        <v>1916345421</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>小刚</t>
+          <t>小猪</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>计算机科学(2)班</t>
+          <t>计算机科学(4)班</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,98 +552,98 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>99.5</v>
+        <v>71.5</v>
       </c>
       <c r="G5" t="n">
-        <v>87.5</v>
+        <v>75.5</v>
       </c>
       <c r="H5" t="n">
-        <v>84.5</v>
+        <v>73.5</v>
       </c>
       <c r="I5" t="n">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J5" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1916345421</v>
+        <v>1715250110</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>小猪</t>
+          <t>小红</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>计算机科学(4)班</t>
+          <t>软件工程一班</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>71.5</v>
+        <v>94</v>
       </c>
       <c r="G6" t="n">
-        <v>75.5</v>
+        <v>88.5</v>
       </c>
       <c r="H6" t="n">
-        <v>73.5</v>
+        <v>95</v>
       </c>
       <c r="I6" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J6" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1715250110</v>
+        <v>1715250156</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>小红</t>
+          <t>小刚</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>软件工程一班</t>
+          <t>软件工程二班</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F7" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G7" t="n">
-        <v>87.5</v>
+        <v>67.5</v>
       </c>
       <c r="H7" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I7" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J7" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/handle_tk_gui/student_info.xlsx
+++ b/handle_tk_gui/student_info.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,6 +646,44 @@
         <v>69</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>小小</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大数据一班</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>56</v>
+      </c>
+      <c r="G8" t="n">
+        <v>89</v>
+      </c>
+      <c r="H8" t="n">
+        <v>76</v>
+      </c>
+      <c r="I8" t="n">
+        <v>98</v>
+      </c>
+      <c r="J8" t="n">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/handle_tk_gui/student_info.xlsx
+++ b/handle_tk_gui/student_info.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>软件工程二班</t>
+          <t>软件工程一班</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -643,7 +643,7 @@
         <v>76</v>
       </c>
       <c r="J7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -682,6 +682,82 @@
       </c>
       <c r="J8" t="n">
         <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>123</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>小千</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>日语一班</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>76</v>
+      </c>
+      <c r="I9" t="n">
+        <v>65</v>
+      </c>
+      <c r="J9" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>是是是</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>梵蒂冈</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>76</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45</v>
+      </c>
+      <c r="G10" t="n">
+        <v>78</v>
+      </c>
+      <c r="H10" t="n">
+        <v>65</v>
+      </c>
+      <c r="I10" t="n">
+        <v>67</v>
+      </c>
+      <c r="J10" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/handle_tk_gui/student_info.xlsx
+++ b/handle_tk_gui/student_info.xlsx
@@ -1,43 +1,484 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="20400" windowHeight="7785"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="学生信息" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="学生信息" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>大学语文</t>
+  </si>
+  <si>
+    <t>高等数学</t>
+  </si>
+  <si>
+    <t>线性代数</t>
+  </si>
+  <si>
+    <t>大学英语</t>
+  </si>
+  <si>
+    <t>Python开发</t>
+  </si>
+  <si>
+    <t>大学体育</t>
+  </si>
+  <si>
+    <t>林小宅</t>
+  </si>
+  <si>
+    <t>语言学（2）班</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>王小明</t>
+  </si>
+  <si>
+    <t>机器学习3班</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>小猪</t>
+  </si>
+  <si>
+    <t>计算机科学(1)班</t>
+  </si>
+  <si>
+    <t>计算机科学(4)班</t>
+  </si>
+  <si>
+    <t>小红</t>
+  </si>
+  <si>
+    <t>软件工程一班</t>
+  </si>
+  <si>
+    <t>小刚</t>
+  </si>
+  <si>
+    <t>小小</t>
+  </si>
+  <si>
+    <t>大数据一班</t>
+  </si>
+  <si>
+    <t>小千</t>
+  </si>
+  <si>
+    <t>日语一班</t>
+  </si>
+  <si>
+    <t>是是是</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>黄大闲</t>
+  </si>
+  <si>
+    <t>计算机2班</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +487,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,419 +1092,374 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>学号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>姓名</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>班级</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>性别</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>大学语文</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>高等数学</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>线性代数</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>大学英语</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Python开发</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>大学体育</t>
-        </is>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>1627256123</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>林小宅</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>语言学（2）班</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>59.5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>45</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>89</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>65.5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>98.5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>32</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:10">
+      <c r="A3">
         <v>1516240225</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>王小明</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>机器学习3班</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
         <v>45</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>59</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>57</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>89</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>78.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>96</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:10">
+      <c r="A4">
         <v>1916345123</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>小猪</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>计算机科学(1)班</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>86</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>91.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>85.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>93.5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>94</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:10">
+      <c r="A5">
         <v>1916345421</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>小猪</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>计算机科学(4)班</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
         <v>76</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>71.5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>75.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>73.5</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>74</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>70</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:10">
+      <c r="A6">
         <v>1715250110</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>小红</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>软件工程一班</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>94</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>88.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>95</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>86</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>89</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:10">
+      <c r="A7">
         <v>1715250156</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>小刚</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>软件工程一班</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <v>88</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>84</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>67.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>75</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>76</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>68</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>123456</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>小小</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大数据一班</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
         <v>43</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>56</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>89</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>76</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>98</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>89</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>123</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>小千</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>日语一班</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>65</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>78.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>45</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>76</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>65</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>67</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:10">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>是是是</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>梵蒂冈</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>76</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>45</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>78</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>65</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>67</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>89.5</v>
+      </c>
+      <c r="F11">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <v>87</v>
+      </c>
+      <c r="H11">
+        <v>94</v>
+      </c>
+      <c r="I11">
+        <v>89</v>
+      </c>
+      <c r="J11">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>